--- a/ADMON_DEL_PROYECTO/BITACORAS/2018/OCT/BITACORA_EQUIPO3_OCTUBRE.xlsx
+++ b/ADMON_DEL_PROYECTO/BITACORAS/2018/OCT/BITACORA_EQUIPO3_OCTUBRE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uriel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesus Alacio\Documents\GitHub\DINORIV\ADMON_DEL_PROYECTO\BITACORAS\2018\OCT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A447A43-87A7-4CCE-91AA-5E80F3DDA1C8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="2" r:id="rId1"/>
@@ -31,6 +32,244 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Jesus Alacio</author>
+  </authors>
+  <commentList>
+    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{2BB47AAD-C1BF-4ADE-B55A-8941776BD892}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jesus Alacio:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+asignación</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E17" authorId="0" shapeId="0" xr:uid="{A6B5346D-5F6B-4532-92E5-6C20B1679873}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jesus Alacio:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+en Github</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Jesus Alacio</author>
+  </authors>
+  <commentList>
+    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{73F44897-0F82-4FE8-AA12-1AD0D052D11F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jesus Alacio:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Revisa la falta de ortografia Todas las celdas pintadas de amarillo tienen errores de ortografía.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G9" authorId="0" shapeId="0" xr:uid="{D770051B-B281-4A44-9344-F47C5B3AEC03}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jesus Alacio:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+falta de ortografia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{DAA5FB7B-AA1C-44D1-8726-19C6360ABAB6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jesus Alacio:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+falta de ortografia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F12" authorId="0" shapeId="0" xr:uid="{B711F708-EF07-4140-91F3-E6126FAD678E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jesus Alacio:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+compartir o administrar.
+ Servirá con asento en la á</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G12" authorId="0" shapeId="0" xr:uid="{D1916140-D3F0-42AF-B19D-F18233098DB5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jesus Alacio:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Repositorio del proyecto en Github</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F13" authorId="0" shapeId="0" xr:uid="{2469B1F4-C95F-4DC1-A60B-60DF20A4E378}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jesus Alacio:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+de nuevo mayusculas y minusculas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H13" authorId="0" shapeId="0" xr:uid="{5FE7F30C-7032-42CF-AA38-56D8A6F7B987}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jesus Alacio:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+mira qui si pusiste el apellido materno de Ángeles.
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -362,8 +601,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,8 +676,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -496,6 +748,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,7 +981,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -799,13 +1057,27 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -844,6 +1116,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -901,39 +1176,43 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1538,11 +1817,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1557,211 +1836,211 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="38"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="43"/>
     </row>
     <row r="3" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="41"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="46"/>
     </row>
     <row r="4" spans="2:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="42"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="44"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="49"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C8" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="39">
         <v>3</v>
       </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
     </row>
     <row r="11" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
       <c r="I11" s="24"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C12" s="25"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C13" s="27"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C14" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C15" s="5">
         <v>1</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C16" s="5">
         <v>2</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C17" s="5">
         <v>3</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C18" s="5">
         <v>4</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C19" s="5">
         <v>5</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C20" s="5">
         <v>6</v>
       </c>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -1789,19 +2068,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:W34"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="62" zoomScalePageLayoutView="57" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6:V6"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="62" zoomScalePageLayoutView="57" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" customWidth="1"/>
     <col min="6" max="6" width="4.42578125" customWidth="1"/>
     <col min="7" max="21" width="3.7109375" customWidth="1"/>
     <col min="23" max="23" width="3.140625" customWidth="1"/>
@@ -1809,90 +2088,90 @@
   <sheetData>
     <row r="1" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="52"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="58"/>
     </row>
     <row r="3" spans="2:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="55"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="61"/>
     </row>
     <row r="4" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="56"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="58"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="64"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="76" t="s">
+      <c r="C6" s="67"/>
+      <c r="D6" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
       <c r="O6" s="13" t="s">
         <v>31</v>
       </c>
@@ -1900,78 +2179,78 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="29"/>
       <c r="S6" s="2"/>
-      <c r="T6" s="79">
+      <c r="T6" s="75">
         <v>43395</v>
       </c>
-      <c r="U6" s="78"/>
-      <c r="V6" s="78"/>
+      <c r="U6" s="76"/>
+      <c r="V6" s="76"/>
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="77" t="s">
+      <c r="C7" s="67"/>
+      <c r="D7" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="77"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="77"/>
-      <c r="P7" s="77"/>
-      <c r="Q7" s="77"/>
-      <c r="R7" s="77"/>
-      <c r="S7" s="77"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="74"/>
+      <c r="P7" s="74"/>
+      <c r="Q7" s="74"/>
+      <c r="R7" s="74"/>
+      <c r="S7" s="74"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J8" s="31"/>
     </row>
     <row r="9" spans="2:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="62"/>
-      <c r="E9" s="59" t="s">
+      <c r="D9" s="68"/>
+      <c r="E9" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="48" t="s">
+      <c r="F9" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="63" t="s">
+      <c r="G9" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="64"/>
-      <c r="O9" s="64"/>
-      <c r="P9" s="64"/>
-      <c r="Q9" s="64"/>
-      <c r="R9" s="64"/>
-      <c r="S9" s="64"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="66"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="70"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="72"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="60"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="49"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="55"/>
       <c r="G10" s="32">
         <v>1</v>
       </c>
@@ -2019,20 +2298,20 @@
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="73">
+      <c r="B11" s="85">
         <v>1</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="67" t="s">
+      <c r="D11" s="80"/>
+      <c r="E11" s="77" t="s">
         <v>61</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="74"/>
+      <c r="G11" s="33"/>
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
@@ -2049,10 +2328,10 @@
       <c r="U11" s="4"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="73"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="68"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="78"/>
       <c r="F12" s="4" t="s">
         <v>36</v>
       </c>
@@ -2073,21 +2352,21 @@
       <c r="U12" s="4"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="73">
+      <c r="B13" s="85">
         <v>2</v>
       </c>
-      <c r="C13" s="69" t="s">
+      <c r="C13" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="70"/>
-      <c r="E13" s="67" t="s">
+      <c r="D13" s="80"/>
+      <c r="E13" s="83" t="s">
         <v>62</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G13" s="19"/>
-      <c r="H13" s="74"/>
+      <c r="H13" s="33"/>
       <c r="I13" s="28"/>
       <c r="J13" s="19"/>
       <c r="K13" s="19"/>
@@ -2103,10 +2382,10 @@
       <c r="U13" s="4"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="73"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="68"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="84"/>
       <c r="F14" s="4" t="s">
         <v>36</v>
       </c>
@@ -2127,14 +2406,14 @@
       <c r="U14" s="4"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="73">
+      <c r="B15" s="85">
         <v>3</v>
       </c>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="67" t="s">
+      <c r="D15" s="80"/>
+      <c r="E15" s="83" t="s">
         <v>63</v>
       </c>
       <c r="F15" s="4" t="s">
@@ -2142,7 +2421,7 @@
       </c>
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
-      <c r="I15" s="74"/>
+      <c r="I15" s="33"/>
       <c r="J15" s="19"/>
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
@@ -2157,10 +2436,10 @@
       <c r="U15" s="4"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="73"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="68"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="84"/>
       <c r="F16" s="4" t="s">
         <v>36</v>
       </c>
@@ -2181,14 +2460,14 @@
       <c r="U16" s="4"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B17" s="73">
+      <c r="B17" s="85">
         <v>4</v>
       </c>
-      <c r="C17" s="69" t="s">
+      <c r="C17" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="70"/>
-      <c r="E17" s="67" t="s">
+      <c r="D17" s="80"/>
+      <c r="E17" s="83" t="s">
         <v>64</v>
       </c>
       <c r="F17" s="4" t="s">
@@ -2197,7 +2476,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
       <c r="I17" s="21"/>
-      <c r="J17" s="75"/>
+      <c r="J17" s="34"/>
       <c r="K17" s="19"/>
       <c r="L17" s="19"/>
       <c r="M17" s="19"/>
@@ -2211,10 +2490,10 @@
       <c r="U17" s="4"/>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B18" s="73"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="68"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="84"/>
       <c r="F18" s="4" t="s">
         <v>36</v>
       </c>
@@ -2235,14 +2514,14 @@
       <c r="U18" s="4"/>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B19" s="73">
+      <c r="B19" s="85">
         <v>5</v>
       </c>
-      <c r="C19" s="69" t="s">
+      <c r="C19" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="70"/>
-      <c r="E19" s="67" t="s">
+      <c r="D19" s="80"/>
+      <c r="E19" s="83" t="s">
         <v>65</v>
       </c>
       <c r="F19" s="4" t="s">
@@ -2252,7 +2531,7 @@
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="21"/>
-      <c r="K19" s="74"/>
+      <c r="K19" s="33"/>
       <c r="L19" s="19"/>
       <c r="M19" s="19"/>
       <c r="N19" s="19"/>
@@ -2265,10 +2544,10 @@
       <c r="U19" s="4"/>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B20" s="73"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="68"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="84"/>
       <c r="F20" s="4" t="s">
         <v>36</v>
       </c>
@@ -2289,12 +2568,12 @@
       <c r="U20" s="4"/>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B21" s="73">
+      <c r="B21" s="85">
         <v>6</v>
       </c>
-      <c r="C21" s="69"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="67"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="83"/>
       <c r="F21" s="4" t="s">
         <v>37</v>
       </c>
@@ -2315,10 +2594,10 @@
       <c r="U21" s="4"/>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B22" s="73"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="68"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="84"/>
       <c r="F22" s="4" t="s">
         <v>36</v>
       </c>
@@ -2339,12 +2618,12 @@
       <c r="U22" s="4"/>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B23" s="73">
+      <c r="B23" s="85">
         <v>7</v>
       </c>
-      <c r="C23" s="69"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="67"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="83"/>
       <c r="F23" s="4" t="s">
         <v>37</v>
       </c>
@@ -2365,10 +2644,10 @@
       <c r="U23" s="4"/>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B24" s="73"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="68"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="84"/>
       <c r="F24" s="4" t="s">
         <v>36</v>
       </c>
@@ -2389,12 +2668,12 @@
       <c r="U24" s="4"/>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B25" s="73">
+      <c r="B25" s="85">
         <v>8</v>
       </c>
-      <c r="C25" s="69"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="67"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="83"/>
       <c r="F25" s="4" t="s">
         <v>37</v>
       </c>
@@ -2415,10 +2694,10 @@
       <c r="U25" s="4"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B26" s="73"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="68"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="84"/>
       <c r="F26" s="4" t="s">
         <v>36</v>
       </c>
@@ -2439,12 +2718,12 @@
       <c r="U26" s="4"/>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B27" s="73">
+      <c r="B27" s="85">
         <v>9</v>
       </c>
-      <c r="C27" s="69"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="67"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="83"/>
       <c r="F27" s="4" t="s">
         <v>37</v>
       </c>
@@ -2465,10 +2744,10 @@
       <c r="U27" s="4"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B28" s="73"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="68"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="84"/>
       <c r="F28" s="4" t="s">
         <v>36</v>
       </c>
@@ -2489,12 +2768,12 @@
       <c r="U28" s="4"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B29" s="73">
+      <c r="B29" s="85">
         <v>10</v>
       </c>
-      <c r="C29" s="69"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="67"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="83"/>
       <c r="F29" s="4" t="s">
         <v>37</v>
       </c>
@@ -2515,10 +2794,10 @@
       <c r="U29" s="4"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B30" s="73"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="68"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="84"/>
       <c r="F30" s="4" t="s">
         <v>36</v>
       </c>
@@ -2539,12 +2818,12 @@
       <c r="U30" s="4"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B31" s="73">
+      <c r="B31" s="85">
         <v>12</v>
       </c>
-      <c r="C31" s="69"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="67"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="83"/>
       <c r="F31" s="4" t="s">
         <v>37</v>
       </c>
@@ -2565,10 +2844,10 @@
       <c r="U31" s="19"/>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B32" s="73"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="68"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="84"/>
       <c r="F32" s="4" t="s">
         <v>36</v>
       </c>
@@ -2589,12 +2868,12 @@
       <c r="U32" s="4"/>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B33" s="73">
+      <c r="B33" s="85">
         <v>13</v>
       </c>
-      <c r="C33" s="69"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="67"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="83"/>
       <c r="F33" s="4" t="s">
         <v>37</v>
       </c>
@@ -2615,10 +2894,10 @@
       <c r="U33" s="4"/>
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B34" s="73"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="68"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="84"/>
       <c r="F34" s="4" t="s">
         <v>36</v>
       </c>
@@ -2691,15 +2970,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="55" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:K110"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2717,40 +2997,40 @@
   <sheetData>
     <row r="2" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="52"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="58"/>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="53"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="55"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="61"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
     </row>
     <row r="5" spans="2:11" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="56"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="64"/>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
     </row>
@@ -2797,10 +3077,10 @@
       <c r="E9" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="36" t="s">
         <v>48</v>
       </c>
       <c r="H9" s="18" t="s">
@@ -2821,7 +3101,7 @@
       <c r="E10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="35" t="s">
         <v>46</v>
       </c>
       <c r="G10" s="22" t="s">
@@ -2845,10 +3125,10 @@
       <c r="E11" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="37" t="s">
         <v>51</v>
       </c>
       <c r="H11" s="18" t="s">
@@ -3895,7 +4175,7 @@
     <mergeCell ref="B3:I5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Semanas del curso" error="Las actividades solo se pueden realizar dentro de las 15 semanas que dura el cuatrimestre." sqref="B9:B110">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Semanas del curso" error="Las actividades solo se pueden realizar dentro de las 15 semanas que dura el cuatrimestre." sqref="B9:B110" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>1</formula1>
       <formula2>15</formula2>
     </dataValidation>
@@ -3903,16 +4183,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
             <xm:f>Hoja3!$F$4:$F$5</xm:f>
           </x14:formula1>
           <xm:sqref>E9:E110</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
           <x14:formula1>
             <xm:f>Hoja3!$D$4:$D$12</xm:f>
           </x14:formula1>
@@ -3925,7 +4206,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/ADMON_DEL_PROYECTO/BITACORAS/2018/OCT/BITACORA_EQUIPO3_OCTUBRE.xlsx
+++ b/ADMON_DEL_PROYECTO/BITACORAS/2018/OCT/BITACORA_EQUIPO3_OCTUBRE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesus Alacio\Documents\GitHub\DINORIV\ADMON_DEL_PROYECTO\BITACORAS\2018\OCT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uriel\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A447A43-87A7-4CCE-91AA-5E80F3DDA1C8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="2" r:id="rId1"/>
@@ -35,215 +34,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Jesus Alacio</author>
   </authors>
   <commentList>
-    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{2BB47AAD-C1BF-4ADE-B55A-8941776BD892}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jesus Alacio:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-asignación</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E17" authorId="0" shapeId="0" xr:uid="{A6B5346D-5F6B-4532-92E5-6C20B1679873}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jesus Alacio:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-en Github</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Jesus Alacio</author>
-  </authors>
-  <commentList>
-    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{73F44897-0F82-4FE8-AA12-1AD0D052D11F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jesus Alacio:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Revisa la falta de ortografia Todas las celdas pintadas de amarillo tienen errores de ortografía.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G9" authorId="0" shapeId="0" xr:uid="{D770051B-B281-4A44-9344-F47C5B3AEC03}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jesus Alacio:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-falta de ortografia</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{DAA5FB7B-AA1C-44D1-8726-19C6360ABAB6}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jesus Alacio:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-falta de ortografia</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F12" authorId="0" shapeId="0" xr:uid="{B711F708-EF07-4140-91F3-E6126FAD678E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jesus Alacio:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-compartir o administrar.
- Servirá con asento en la á</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G12" authorId="0" shapeId="0" xr:uid="{D1916140-D3F0-42AF-B19D-F18233098DB5}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jesus Alacio:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Repositorio del proyecto en Github</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F13" authorId="0" shapeId="0" xr:uid="{2469B1F4-C95F-4DC1-A60B-60DF20A4E378}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jesus Alacio:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-de nuevo mayusculas y minusculas</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H13" authorId="0" shapeId="0" xr:uid="{5FE7F30C-7032-42CF-AA38-56D8A6F7B987}">
+    <comment ref="H13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -273,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="73">
   <si>
     <t>Grupo:</t>
   </si>
@@ -511,57 +307,27 @@
     <t>Irving Jesus Ramirez Alació</t>
   </si>
   <si>
-    <t>En esta reunon de trabajo se hablo de los artefactos a entregar y se asignaron cargas de trabajo a los integrantes</t>
-  </si>
-  <si>
-    <t>En esta reunon de trabajo se reviso el primer avance de uno de los artefactos a entergar</t>
-  </si>
-  <si>
     <t>Plan de desarrollo de software</t>
   </si>
   <si>
-    <t>Tabla de asignaion de roles</t>
-  </si>
-  <si>
     <t>Brandon Azael Muciño Santiesteban</t>
   </si>
   <si>
-    <t>En esta reunuon se reviso el primer avance de otro de los artefactos a estregar</t>
-  </si>
-  <si>
-    <t>Caso de Desarrllo</t>
-  </si>
-  <si>
     <t>Arturo Uriel Reyes García</t>
   </si>
   <si>
-    <t>Se creo el repositorio del proyecto el cual servira para compartir informacion con los integrantes del equipo</t>
-  </si>
-  <si>
-    <t>Repositorio en Github</t>
-  </si>
-  <si>
     <t>Mar Iveet Calleja Ortega</t>
   </si>
   <si>
-    <t>Se Inicio el diseño del logotipo del Proyecto Dinori</t>
-  </si>
-  <si>
     <t>Archivos .cdr(CorelDraw) y .psd(photoshop)</t>
   </si>
   <si>
-    <t>Maria de los Angeles de la trinidad diaz</t>
-  </si>
-  <si>
     <t>Reunion con el Equipo</t>
   </si>
   <si>
     <t>Diseño Grafico</t>
   </si>
   <si>
-    <t>Tabla de Asignacion de Roles</t>
-  </si>
-  <si>
     <t>Plan de Desarrollo de Software</t>
   </si>
   <si>
@@ -592,16 +358,43 @@
     <t>Progamación de Aplicaciones</t>
   </si>
   <si>
-    <t xml:space="preserve">María de los Angeles de la Trinidad </t>
-  </si>
-  <si>
     <t>Irving Jesús Ramirez Alacio</t>
+  </si>
+  <si>
+    <t>María de los Angeles de la Trinidad Díaz</t>
+  </si>
+  <si>
+    <t>Tabla de Asignación de Roles</t>
+  </si>
+  <si>
+    <t>En esta reunión de trabajo se hablo de los artefactos a entregar y se asignaron cargas de trabajo a los integrantes del equipo</t>
+  </si>
+  <si>
+    <t>Tabla de asignación de roles</t>
+  </si>
+  <si>
+    <t>En esta reunión de trabajo se reviso el primer avance de uno de los artefactos a entregar</t>
+  </si>
+  <si>
+    <t>En esta reunión se reviso el primer avance de otro de los artefactos a entregar</t>
+  </si>
+  <si>
+    <t>Repositorio del proyecto en Github</t>
+  </si>
+  <si>
+    <t>Se creo el repositorio del proyecto el cual serviriá para administrar información con los integrantes del equipo</t>
+  </si>
+  <si>
+    <t>Se inicio el diseño del logotipo del proyecto dinoriv</t>
+  </si>
+  <si>
+    <t>Maria de los Angeles de la Trinidad Díaz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -753,7 +546,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1059,161 +852,161 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1817,11 +1610,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:H15"/>
+      <selection activeCell="D16" sqref="D16:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1836,211 +1629,211 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="43"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="39"/>
     </row>
     <row r="3" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="46"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="42"/>
     </row>
     <row r="4" spans="2:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="49"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="45"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
+      <c r="D6" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
+      <c r="D7" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C8" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
+      <c r="D8" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
+      <c r="D9" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="36">
         <v>3</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
     </row>
     <row r="11" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
+      <c r="D11" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
       <c r="I11" s="24"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C12" s="25"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C13" s="27"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C14" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C15" s="5">
         <v>1</v>
       </c>
-      <c r="D15" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
+      <c r="D15" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C16" s="5">
         <v>2</v>
       </c>
-      <c r="D16" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
+      <c r="D16" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C17" s="5">
         <v>3</v>
       </c>
-      <c r="D17" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
+      <c r="D17" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C18" s="5">
         <v>4</v>
       </c>
-      <c r="D18" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
+      <c r="D18" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C19" s="5">
         <v>5</v>
       </c>
-      <c r="D19" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
+      <c r="D19" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C20" s="5">
         <v>6</v>
       </c>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -2068,11 +1861,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:W34"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="62" zoomScalePageLayoutView="57" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:E20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="62" zoomScalePageLayoutView="57" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2088,90 +1881,90 @@
   <sheetData>
     <row r="1" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="58"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="60"/>
     </row>
     <row r="3" spans="2:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="59"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="61"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="63"/>
     </row>
     <row r="4" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="62"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="63"/>
-      <c r="T4" s="63"/>
-      <c r="U4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="65"/>
+      <c r="T4" s="65"/>
+      <c r="U4" s="66"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="73" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
       <c r="O6" s="13" t="s">
         <v>31</v>
       </c>
@@ -2179,78 +1972,78 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="29"/>
       <c r="S6" s="2"/>
-      <c r="T6" s="75">
+      <c r="T6" s="77">
         <v>43395</v>
       </c>
-      <c r="U6" s="76"/>
-      <c r="V6" s="76"/>
+      <c r="U6" s="78"/>
+      <c r="V6" s="78"/>
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="74"/>
-      <c r="R7" s="74"/>
-      <c r="S7" s="74"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="76"/>
+      <c r="P7" s="76"/>
+      <c r="Q7" s="76"/>
+      <c r="R7" s="76"/>
+      <c r="S7" s="76"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J8" s="31"/>
     </row>
     <row r="9" spans="2:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="68"/>
-      <c r="E9" s="65" t="s">
+      <c r="D9" s="70"/>
+      <c r="E9" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="54" t="s">
+      <c r="F9" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="69" t="s">
+      <c r="G9" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="70"/>
-      <c r="O9" s="70"/>
-      <c r="P9" s="70"/>
-      <c r="Q9" s="70"/>
-      <c r="R9" s="70"/>
-      <c r="S9" s="70"/>
-      <c r="T9" s="70"/>
-      <c r="U9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="72"/>
+      <c r="R9" s="72"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="72"/>
+      <c r="U9" s="74"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="66"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="55"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="57"/>
       <c r="G10" s="32">
         <v>1</v>
       </c>
@@ -2298,15 +2091,15 @@
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="85">
+      <c r="B11" s="49">
         <v>1</v>
       </c>
-      <c r="C11" s="79" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="80"/>
-      <c r="E11" s="77" t="s">
-        <v>61</v>
+      <c r="C11" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="51"/>
+      <c r="E11" s="81" t="s">
+        <v>64</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>37</v>
@@ -2328,10 +2121,10 @@
       <c r="U11" s="4"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="85"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="78"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="82"/>
       <c r="F12" s="4" t="s">
         <v>36</v>
       </c>
@@ -2352,15 +2145,15 @@
       <c r="U12" s="4"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="85">
+      <c r="B13" s="49">
         <v>2</v>
       </c>
-      <c r="C13" s="79" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="80"/>
-      <c r="E13" s="83" t="s">
-        <v>62</v>
+      <c r="C13" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="51"/>
+      <c r="E13" s="54" t="s">
+        <v>52</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>37</v>
@@ -2382,10 +2175,10 @@
       <c r="U13" s="4"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="85"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="84"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="55"/>
       <c r="F14" s="4" t="s">
         <v>36</v>
       </c>
@@ -2406,15 +2199,15 @@
       <c r="U14" s="4"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="85">
+      <c r="B15" s="49">
         <v>3</v>
       </c>
-      <c r="C15" s="79" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="80"/>
-      <c r="E15" s="83" t="s">
-        <v>63</v>
+      <c r="C15" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="51"/>
+      <c r="E15" s="54" t="s">
+        <v>53</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>37</v>
@@ -2436,10 +2229,10 @@
       <c r="U15" s="4"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="85"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="84"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="55"/>
       <c r="F16" s="4" t="s">
         <v>36</v>
       </c>
@@ -2460,15 +2253,15 @@
       <c r="U16" s="4"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B17" s="85">
+      <c r="B17" s="49">
         <v>4</v>
       </c>
-      <c r="C17" s="79" t="s">
+      <c r="C17" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="80"/>
-      <c r="E17" s="83" t="s">
-        <v>64</v>
+      <c r="D17" s="51"/>
+      <c r="E17" s="54" t="s">
+        <v>54</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>37</v>
@@ -2490,10 +2283,10 @@
       <c r="U17" s="4"/>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B18" s="85"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="84"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="55"/>
       <c r="F18" s="4" t="s">
         <v>36</v>
       </c>
@@ -2514,15 +2307,15 @@
       <c r="U18" s="4"/>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B19" s="85">
+      <c r="B19" s="49">
         <v>5</v>
       </c>
-      <c r="C19" s="79" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="80"/>
-      <c r="E19" s="83" t="s">
-        <v>65</v>
+      <c r="C19" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="51"/>
+      <c r="E19" s="54" t="s">
+        <v>55</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>37</v>
@@ -2544,10 +2337,10 @@
       <c r="U19" s="4"/>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B20" s="85"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="84"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="55"/>
       <c r="F20" s="4" t="s">
         <v>36</v>
       </c>
@@ -2568,12 +2361,12 @@
       <c r="U20" s="4"/>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B21" s="85">
+      <c r="B21" s="49">
         <v>6</v>
       </c>
-      <c r="C21" s="79"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="83"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="54"/>
       <c r="F21" s="4" t="s">
         <v>37</v>
       </c>
@@ -2594,10 +2387,10 @@
       <c r="U21" s="4"/>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B22" s="85"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="84"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="55"/>
       <c r="F22" s="4" t="s">
         <v>36</v>
       </c>
@@ -2618,12 +2411,12 @@
       <c r="U22" s="4"/>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B23" s="85">
+      <c r="B23" s="49">
         <v>7</v>
       </c>
-      <c r="C23" s="79"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="83"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="54"/>
       <c r="F23" s="4" t="s">
         <v>37</v>
       </c>
@@ -2644,10 +2437,10 @@
       <c r="U23" s="4"/>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B24" s="85"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="84"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="55"/>
       <c r="F24" s="4" t="s">
         <v>36</v>
       </c>
@@ -2668,12 +2461,12 @@
       <c r="U24" s="4"/>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B25" s="85">
+      <c r="B25" s="49">
         <v>8</v>
       </c>
-      <c r="C25" s="79"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="83"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="54"/>
       <c r="F25" s="4" t="s">
         <v>37</v>
       </c>
@@ -2694,10 +2487,10 @@
       <c r="U25" s="4"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B26" s="85"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="84"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="55"/>
       <c r="F26" s="4" t="s">
         <v>36</v>
       </c>
@@ -2718,12 +2511,12 @@
       <c r="U26" s="4"/>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B27" s="85">
+      <c r="B27" s="49">
         <v>9</v>
       </c>
-      <c r="C27" s="79"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="83"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="54"/>
       <c r="F27" s="4" t="s">
         <v>37</v>
       </c>
@@ -2744,10 +2537,10 @@
       <c r="U27" s="4"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B28" s="85"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="84"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="55"/>
       <c r="F28" s="4" t="s">
         <v>36</v>
       </c>
@@ -2768,12 +2561,12 @@
       <c r="U28" s="4"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B29" s="85">
+      <c r="B29" s="49">
         <v>10</v>
       </c>
-      <c r="C29" s="79"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="83"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="54"/>
       <c r="F29" s="4" t="s">
         <v>37</v>
       </c>
@@ -2794,10 +2587,10 @@
       <c r="U29" s="4"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B30" s="85"/>
-      <c r="C30" s="81"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="84"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="55"/>
       <c r="F30" s="4" t="s">
         <v>36</v>
       </c>
@@ -2818,12 +2611,12 @@
       <c r="U30" s="4"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B31" s="85">
+      <c r="B31" s="49">
         <v>12</v>
       </c>
-      <c r="C31" s="79"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="83"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="54"/>
       <c r="F31" s="4" t="s">
         <v>37</v>
       </c>
@@ -2844,10 +2637,10 @@
       <c r="U31" s="19"/>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B32" s="85"/>
-      <c r="C32" s="81"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="84"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="55"/>
       <c r="F32" s="4" t="s">
         <v>36</v>
       </c>
@@ -2868,12 +2661,12 @@
       <c r="U32" s="4"/>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B33" s="85">
+      <c r="B33" s="49">
         <v>13</v>
       </c>
-      <c r="C33" s="79"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="83"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="54"/>
       <c r="F33" s="4" t="s">
         <v>37</v>
       </c>
@@ -2894,10 +2687,10 @@
       <c r="U33" s="4"/>
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B34" s="85"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="84"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="55"/>
       <c r="F34" s="4" t="s">
         <v>36</v>
       </c>
@@ -2919,11 +2712,34 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B2:U4"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="G9:U9"/>
+    <mergeCell ref="D6:M6"/>
+    <mergeCell ref="D7:S7"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
     <mergeCell ref="C33:D34"/>
     <mergeCell ref="E33:E34"/>
     <mergeCell ref="B33:B34"/>
@@ -2938,48 +2754,24 @@
     <mergeCell ref="E29:E30"/>
     <mergeCell ref="C31:D32"/>
     <mergeCell ref="E31:E32"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B2:U4"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="G9:U9"/>
-    <mergeCell ref="D6:M6"/>
-    <mergeCell ref="D7:S7"/>
-    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="55" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K110"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2997,40 +2789,40 @@
   <sheetData>
     <row r="2" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="58"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="60"/>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="59"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="61"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="63"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
     </row>
     <row r="5" spans="2:11" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="62"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="66"/>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
     </row>
@@ -3077,11 +2869,11 @@
       <c r="E9" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="36" t="s">
-        <v>48</v>
+      <c r="F9" s="83" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="84" t="s">
+        <v>66</v>
       </c>
       <c r="H9" s="18" t="s">
         <v>44</v>
@@ -3101,14 +2893,14 @@
       <c r="E10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="35" t="s">
+      <c r="F10" s="83" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="18" t="s">
         <v>46</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>49</v>
       </c>
       <c r="I10" s="14"/>
     </row>
@@ -3125,14 +2917,14 @@
       <c r="E11" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="37" t="s">
-        <v>51</v>
+      <c r="F11" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="85" t="s">
+        <v>53</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I11" s="14"/>
     </row>
@@ -3150,13 +2942,13 @@
         <v>42</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I12" s="14"/>
     </row>
@@ -3174,13 +2966,13 @@
         <v>41</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="I13" s="14"/>
     </row>
@@ -4175,7 +3967,7 @@
     <mergeCell ref="B3:I5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Semanas del curso" error="Las actividades solo se pueden realizar dentro de las 15 semanas que dura el cuatrimestre." sqref="B9:B110" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Semanas del curso" error="Las actividades solo se pueden realizar dentro de las 15 semanas que dura el cuatrimestre." sqref="B9:B110">
       <formula1>1</formula1>
       <formula2>15</formula2>
     </dataValidation>
@@ -4187,13 +3979,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Hoja3!$F$4:$F$5</xm:f>
           </x14:formula1>
           <xm:sqref>E9:E110</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Hoja3!$D$4:$D$12</xm:f>
           </x14:formula1>
@@ -4206,7 +3998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/ADMON_DEL_PROYECTO/BITACORAS/2018/OCT/BITACORA_EQUIPO3_OCTUBRE.xlsx
+++ b/ADMON_DEL_PROYECTO/BITACORAS/2018/OCT/BITACORA_EQUIPO3_OCTUBRE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uriel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesus Alacio\Documents\GitHub\DINORIV\ADMON_DEL_PROYECTO\BITACORAS\2018\OCT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC11CC9-3040-4E17-803D-F34559A83FF9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="2" r:id="rId1"/>
@@ -34,12 +35,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Jesus Alacio</author>
   </authors>
   <commentList>
-    <comment ref="H13" authorId="0" shapeId="0">
+    <comment ref="H13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -334,9 +335,6 @@
     <t>Caso de Desarrollo</t>
   </si>
   <si>
-    <t>Repositorio Github</t>
-  </si>
-  <si>
     <t>Archivos . Cdr y .psd</t>
   </si>
   <si>
@@ -382,19 +380,22 @@
     <t>Repositorio del proyecto en Github</t>
   </si>
   <si>
-    <t>Se creo el repositorio del proyecto el cual serviriá para administrar información con los integrantes del equipo</t>
-  </si>
-  <si>
     <t>Se inicio el diseño del logotipo del proyecto dinoriv</t>
   </si>
   <si>
     <t>Maria de los Angeles de la Trinidad Díaz</t>
+  </si>
+  <si>
+    <t>Repositorio en Github</t>
+  </si>
+  <si>
+    <t>Se creo el repositorio del proyecto el cual serviriá para administrar la información generada</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -483,7 +484,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -547,6 +548,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -774,7 +781,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -852,150 +859,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1007,6 +870,162 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1610,11 +1629,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:H16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1629,211 +1648,211 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="39"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="43"/>
     </row>
     <row r="3" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="40"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="42"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="46"/>
     </row>
     <row r="4" spans="2:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="43"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="45"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="49"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
+      <c r="D6" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
+      <c r="D7" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C8" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
+      <c r="D8" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="79" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
+      <c r="D9" s="85" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="39">
         <v>3</v>
       </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
     </row>
     <row r="11" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
+      <c r="D11" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
       <c r="I11" s="24"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C12" s="25"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C13" s="27"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C14" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C15" s="5">
         <v>1</v>
       </c>
-      <c r="D15" s="80" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
+      <c r="D15" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C16" s="5">
         <v>2</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C17" s="5">
         <v>3</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C18" s="5">
         <v>4</v>
       </c>
-      <c r="D18" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
+      <c r="D18" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C19" s="5">
         <v>5</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C20" s="5">
         <v>6</v>
       </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -1861,11 +1880,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:W34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="62" zoomScalePageLayoutView="57" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:E18"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="62" zoomScalePageLayoutView="57" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1881,90 +1900,90 @@
   <sheetData>
     <row r="1" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="60"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="57"/>
     </row>
     <row r="3" spans="2:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="61"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="63"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="60"/>
     </row>
     <row r="4" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="64"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="65"/>
-      <c r="S4" s="65"/>
-      <c r="T4" s="65"/>
-      <c r="U4" s="66"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="63"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="75" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
       <c r="O6" s="13" t="s">
         <v>31</v>
       </c>
@@ -1972,78 +1991,78 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="29"/>
       <c r="S6" s="2"/>
-      <c r="T6" s="77">
+      <c r="T6" s="74">
         <v>43395</v>
       </c>
-      <c r="U6" s="78"/>
-      <c r="V6" s="78"/>
+      <c r="U6" s="75"/>
+      <c r="V6" s="75"/>
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="76" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="76"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="76"/>
-      <c r="P7" s="76"/>
-      <c r="Q7" s="76"/>
-      <c r="R7" s="76"/>
-      <c r="S7" s="76"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73"/>
+      <c r="S7" s="73"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J8" s="31"/>
     </row>
     <row r="9" spans="2:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="70"/>
-      <c r="E9" s="67" t="s">
+      <c r="D9" s="67"/>
+      <c r="E9" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="56" t="s">
+      <c r="F9" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="71" t="s">
+      <c r="G9" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="72"/>
-      <c r="N9" s="72"/>
-      <c r="O9" s="72"/>
-      <c r="P9" s="72"/>
-      <c r="Q9" s="72"/>
-      <c r="R9" s="72"/>
-      <c r="S9" s="72"/>
-      <c r="T9" s="72"/>
-      <c r="U9" s="74"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="69"/>
+      <c r="T9" s="69"/>
+      <c r="U9" s="71"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="68"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="57"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="54"/>
       <c r="G10" s="32">
         <v>1</v>
       </c>
@@ -2091,15 +2110,15 @@
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="49">
+      <c r="B11" s="84">
         <v>1</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="51"/>
-      <c r="E11" s="81" t="s">
-        <v>64</v>
+      <c r="D11" s="87"/>
+      <c r="E11" s="76" t="s">
+        <v>63</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>37</v>
@@ -2121,10 +2140,10 @@
       <c r="U11" s="4"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="49"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="82"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="77"/>
       <c r="F12" s="4" t="s">
         <v>36</v>
       </c>
@@ -2145,14 +2164,14 @@
       <c r="U12" s="4"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="49">
+      <c r="B13" s="84">
         <v>2</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="51"/>
-      <c r="E13" s="54" t="s">
+      <c r="D13" s="87"/>
+      <c r="E13" s="82" t="s">
         <v>52</v>
       </c>
       <c r="F13" s="4" t="s">
@@ -2175,10 +2194,10 @@
       <c r="U13" s="4"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="49"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="55"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="83"/>
       <c r="F14" s="4" t="s">
         <v>36</v>
       </c>
@@ -2199,14 +2218,14 @@
       <c r="U14" s="4"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="49">
+      <c r="B15" s="84">
         <v>3</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="51"/>
-      <c r="E15" s="54" t="s">
+      <c r="D15" s="87"/>
+      <c r="E15" s="82" t="s">
         <v>53</v>
       </c>
       <c r="F15" s="4" t="s">
@@ -2229,10 +2248,10 @@
       <c r="U15" s="4"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="49"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="55"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="83"/>
       <c r="F16" s="4" t="s">
         <v>36</v>
       </c>
@@ -2253,15 +2272,15 @@
       <c r="U16" s="4"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B17" s="49">
+      <c r="B17" s="84">
         <v>4</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="51"/>
-      <c r="E17" s="54" t="s">
-        <v>54</v>
+      <c r="D17" s="79"/>
+      <c r="E17" s="82" t="s">
+        <v>71</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>37</v>
@@ -2283,10 +2302,10 @@
       <c r="U17" s="4"/>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B18" s="49"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="55"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="83"/>
       <c r="F18" s="4" t="s">
         <v>36</v>
       </c>
@@ -2307,15 +2326,15 @@
       <c r="U18" s="4"/>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B19" s="49">
+      <c r="B19" s="84">
         <v>5</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="51"/>
-      <c r="E19" s="54" t="s">
-        <v>55</v>
+      <c r="D19" s="87"/>
+      <c r="E19" s="82" t="s">
+        <v>54</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>37</v>
@@ -2337,10 +2356,10 @@
       <c r="U19" s="4"/>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B20" s="49"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="55"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="83"/>
       <c r="F20" s="4" t="s">
         <v>36</v>
       </c>
@@ -2361,12 +2380,12 @@
       <c r="U20" s="4"/>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B21" s="49">
+      <c r="B21" s="84">
         <v>6</v>
       </c>
-      <c r="C21" s="50"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="54"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="82"/>
       <c r="F21" s="4" t="s">
         <v>37</v>
       </c>
@@ -2387,10 +2406,10 @@
       <c r="U21" s="4"/>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B22" s="49"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="55"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="83"/>
       <c r="F22" s="4" t="s">
         <v>36</v>
       </c>
@@ -2411,12 +2430,12 @@
       <c r="U22" s="4"/>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B23" s="49">
+      <c r="B23" s="84">
         <v>7</v>
       </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="54"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="82"/>
       <c r="F23" s="4" t="s">
         <v>37</v>
       </c>
@@ -2437,10 +2456,10 @@
       <c r="U23" s="4"/>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B24" s="49"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="55"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="83"/>
       <c r="F24" s="4" t="s">
         <v>36</v>
       </c>
@@ -2461,12 +2480,12 @@
       <c r="U24" s="4"/>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B25" s="49">
+      <c r="B25" s="84">
         <v>8</v>
       </c>
-      <c r="C25" s="50"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="54"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="82"/>
       <c r="F25" s="4" t="s">
         <v>37</v>
       </c>
@@ -2487,10 +2506,10 @@
       <c r="U25" s="4"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B26" s="49"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="55"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="83"/>
       <c r="F26" s="4" t="s">
         <v>36</v>
       </c>
@@ -2511,12 +2530,12 @@
       <c r="U26" s="4"/>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B27" s="49">
+      <c r="B27" s="84">
         <v>9</v>
       </c>
-      <c r="C27" s="50"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="54"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="82"/>
       <c r="F27" s="4" t="s">
         <v>37</v>
       </c>
@@ -2537,10 +2556,10 @@
       <c r="U27" s="4"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B28" s="49"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="55"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="83"/>
       <c r="F28" s="4" t="s">
         <v>36</v>
       </c>
@@ -2561,12 +2580,12 @@
       <c r="U28" s="4"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B29" s="49">
+      <c r="B29" s="84">
         <v>10</v>
       </c>
-      <c r="C29" s="50"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="54"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="82"/>
       <c r="F29" s="4" t="s">
         <v>37</v>
       </c>
@@ -2587,10 +2606,10 @@
       <c r="U29" s="4"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B30" s="49"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="55"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="83"/>
       <c r="F30" s="4" t="s">
         <v>36</v>
       </c>
@@ -2611,12 +2630,12 @@
       <c r="U30" s="4"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B31" s="49">
+      <c r="B31" s="84">
         <v>12</v>
       </c>
-      <c r="C31" s="50"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="54"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="82"/>
       <c r="F31" s="4" t="s">
         <v>37</v>
       </c>
@@ -2637,10 +2656,10 @@
       <c r="U31" s="19"/>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B32" s="49"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="55"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="83"/>
       <c r="F32" s="4" t="s">
         <v>36</v>
       </c>
@@ -2661,12 +2680,12 @@
       <c r="U32" s="4"/>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B33" s="49">
+      <c r="B33" s="84">
         <v>13</v>
       </c>
-      <c r="C33" s="50"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="54"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="82"/>
       <c r="F33" s="4" t="s">
         <v>37</v>
       </c>
@@ -2687,10 +2706,10 @@
       <c r="U33" s="4"/>
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B34" s="49"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="55"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="83"/>
       <c r="F34" s="4" t="s">
         <v>36</v>
       </c>
@@ -2712,34 +2731,11 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B2:U4"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="G9:U9"/>
-    <mergeCell ref="D6:M6"/>
-    <mergeCell ref="D7:S7"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
     <mergeCell ref="C33:D34"/>
     <mergeCell ref="E33:E34"/>
     <mergeCell ref="B33:B34"/>
@@ -2754,11 +2750,34 @@
     <mergeCell ref="E29:E30"/>
     <mergeCell ref="C31:D32"/>
     <mergeCell ref="E31:E32"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B2:U4"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="G9:U9"/>
+    <mergeCell ref="D6:M6"/>
+    <mergeCell ref="D7:S7"/>
+    <mergeCell ref="T6:V6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="55" orientation="portrait" r:id="rId1"/>
@@ -2767,11 +2786,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:K110"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2789,40 +2808,40 @@
   <sheetData>
     <row r="2" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="60"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="57"/>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="63"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="60"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
     </row>
     <row r="5" spans="2:11" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="66"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="63"/>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
     </row>
@@ -2869,11 +2888,11 @@
       <c r="E9" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="83" t="s">
+      <c r="F9" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="36" t="s">
         <v>65</v>
-      </c>
-      <c r="G9" s="84" t="s">
-        <v>66</v>
       </c>
       <c r="H9" s="18" t="s">
         <v>44</v>
@@ -2893,8 +2912,8 @@
       <c r="E10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="83" t="s">
-        <v>67</v>
+      <c r="F10" s="35" t="s">
+        <v>66</v>
       </c>
       <c r="G10" s="22" t="s">
         <v>45</v>
@@ -2917,10 +2936,10 @@
       <c r="E11" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="83" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="85" t="s">
+      <c r="F11" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="37" t="s">
         <v>53</v>
       </c>
       <c r="H11" s="18" t="s">
@@ -2942,10 +2961,10 @@
         <v>42</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H12" s="18" t="s">
         <v>48</v>
@@ -2966,13 +2985,13 @@
         <v>41</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G13" s="23" t="s">
         <v>49</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I13" s="14"/>
     </row>
@@ -3967,7 +3986,7 @@
     <mergeCell ref="B3:I5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Semanas del curso" error="Las actividades solo se pueden realizar dentro de las 15 semanas que dura el cuatrimestre." sqref="B9:B110">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Semanas del curso" error="Las actividades solo se pueden realizar dentro de las 15 semanas que dura el cuatrimestre." sqref="B9:B110" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>1</formula1>
       <formula2>15</formula2>
     </dataValidation>
@@ -3979,13 +3998,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
             <xm:f>Hoja3!$F$4:$F$5</xm:f>
           </x14:formula1>
           <xm:sqref>E9:E110</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
           <x14:formula1>
             <xm:f>Hoja3!$D$4:$D$12</xm:f>
           </x14:formula1>
@@ -3998,7 +4017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/ADMON_DEL_PROYECTO/BITACORAS/2018/OCT/BITACORA_EQUIPO3_OCTUBRE.xlsx
+++ b/ADMON_DEL_PROYECTO/BITACORAS/2018/OCT/BITACORA_EQUIPO3_OCTUBRE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesus Alacio\Documents\GitHub\DINORIV\ADMON_DEL_PROYECTO\BITACORAS\2018\OCT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC11CC9-3040-4E17-803D-F34559A83FF9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="2" r:id="rId1"/>
@@ -35,12 +34,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Jesus Alacio</author>
   </authors>
   <commentList>
-    <comment ref="H13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="H13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="75">
   <si>
     <t>Grupo:</t>
   </si>
@@ -326,9 +325,6 @@
     <t>Reunion con el Equipo</t>
   </si>
   <si>
-    <t>Diseño Grafico</t>
-  </si>
-  <si>
     <t>Plan de Desarrollo de Software</t>
   </si>
   <si>
@@ -353,9 +349,6 @@
     <t>7 ITI MT V-S</t>
   </si>
   <si>
-    <t>Progamación de Aplicaciones</t>
-  </si>
-  <si>
     <t>Irving Jesús Ramirez Alacio</t>
   </si>
   <si>
@@ -390,12 +383,24 @@
   </si>
   <si>
     <t>Se creo el repositorio del proyecto el cual serviriá para administrar la información generada</t>
+  </si>
+  <si>
+    <t>Programación de Aplicaciones</t>
+  </si>
+  <si>
+    <t>Reunión con el Equipo</t>
+  </si>
+  <si>
+    <t>Diseño Gráfico</t>
+  </si>
+  <si>
+    <t>Caso de desarrollo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -484,7 +489,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -542,18 +547,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -781,7 +774,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -864,10 +857,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -877,7 +866,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -991,6 +980,24 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1003,29 +1010,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1629,11 +1615,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:H9"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1648,211 +1634,211 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="43"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="42"/>
     </row>
     <row r="3" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="46"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="45"/>
     </row>
     <row r="4" spans="2:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="49"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="48"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
+      <c r="D6" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
+      <c r="D7" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C8" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
+      <c r="D8" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="85" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
+      <c r="D9" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="38">
         <v>3</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
     </row>
     <row r="11" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
+      <c r="D11" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
       <c r="I11" s="24"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C12" s="25"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C13" s="27"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C14" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C15" s="5">
         <v>1</v>
       </c>
-      <c r="D15" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
+      <c r="D15" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C16" s="5">
         <v>2</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C17" s="5">
         <v>3</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C18" s="5">
         <v>4</v>
       </c>
-      <c r="D18" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
+      <c r="D18" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C19" s="5">
         <v>5</v>
       </c>
-      <c r="D19" s="38" t="s">
+      <c r="D19" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C20" s="5">
         <v>6</v>
       </c>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -1880,11 +1866,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:W34"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="62" zoomScalePageLayoutView="57" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:D16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="62" zoomScalePageLayoutView="57" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9:U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1900,90 +1886,90 @@
   <sheetData>
     <row r="1" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="57"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="56"/>
     </row>
     <row r="3" spans="2:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="58"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="60"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="59"/>
     </row>
     <row r="4" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="63"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="62"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="72" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
       <c r="O6" s="13" t="s">
         <v>31</v>
       </c>
@@ -1991,78 +1977,78 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="29"/>
       <c r="S6" s="2"/>
-      <c r="T6" s="74">
+      <c r="T6" s="73">
         <v>43395</v>
       </c>
-      <c r="U6" s="75"/>
-      <c r="V6" s="75"/>
+      <c r="U6" s="74"/>
+      <c r="V6" s="74"/>
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="73" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="73"/>
-      <c r="Q7" s="73"/>
-      <c r="R7" s="73"/>
-      <c r="S7" s="73"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="72"/>
+      <c r="S7" s="72"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J8" s="31"/>
     </row>
     <row r="9" spans="2:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="67"/>
-      <c r="E9" s="64" t="s">
+      <c r="D9" s="66"/>
+      <c r="E9" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="53" t="s">
+      <c r="F9" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="68" t="s">
+      <c r="G9" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="69"/>
-      <c r="P9" s="69"/>
-      <c r="Q9" s="69"/>
-      <c r="R9" s="69"/>
-      <c r="S9" s="69"/>
-      <c r="T9" s="69"/>
-      <c r="U9" s="71"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="68"/>
+      <c r="R9" s="68"/>
+      <c r="S9" s="68"/>
+      <c r="T9" s="68"/>
+      <c r="U9" s="70"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="65"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="54"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="53"/>
       <c r="G10" s="32">
         <v>1</v>
       </c>
@@ -2110,15 +2096,15 @@
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="84">
+      <c r="B11" s="87">
         <v>1</v>
       </c>
-      <c r="C11" s="86" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="87"/>
-      <c r="E11" s="76" t="s">
-        <v>63</v>
+      <c r="C11" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="78"/>
+      <c r="E11" s="75" t="s">
+        <v>61</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>37</v>
@@ -2140,10 +2126,10 @@
       <c r="U11" s="4"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="84"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="77"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="76"/>
       <c r="F12" s="4" t="s">
         <v>36</v>
       </c>
@@ -2164,15 +2150,15 @@
       <c r="U12" s="4"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="84">
+      <c r="B13" s="87">
         <v>2</v>
       </c>
-      <c r="C13" s="86" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="87"/>
-      <c r="E13" s="82" t="s">
-        <v>52</v>
+      <c r="C13" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="78"/>
+      <c r="E13" s="81" t="s">
+        <v>51</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>37</v>
@@ -2194,10 +2180,10 @@
       <c r="U13" s="4"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="84"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="83"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="82"/>
       <c r="F14" s="4" t="s">
         <v>36</v>
       </c>
@@ -2218,15 +2204,15 @@
       <c r="U14" s="4"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="84">
+      <c r="B15" s="87">
         <v>3</v>
       </c>
-      <c r="C15" s="86" t="s">
+      <c r="C15" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="87"/>
-      <c r="E15" s="82" t="s">
-        <v>53</v>
+      <c r="D15" s="78"/>
+      <c r="E15" s="81" t="s">
+        <v>52</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>37</v>
@@ -2248,10 +2234,10 @@
       <c r="U15" s="4"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="84"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="83"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="82"/>
       <c r="F16" s="4" t="s">
         <v>36</v>
       </c>
@@ -2272,15 +2258,15 @@
       <c r="U16" s="4"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B17" s="84">
+      <c r="B17" s="87">
         <v>4</v>
       </c>
-      <c r="C17" s="78" t="s">
+      <c r="C17" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="79"/>
-      <c r="E17" s="82" t="s">
-        <v>71</v>
+      <c r="D17" s="84"/>
+      <c r="E17" s="81" t="s">
+        <v>69</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>37</v>
@@ -2302,10 +2288,10 @@
       <c r="U17" s="4"/>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B18" s="84"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="83"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="82"/>
       <c r="F18" s="4" t="s">
         <v>36</v>
       </c>
@@ -2326,15 +2312,15 @@
       <c r="U18" s="4"/>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B19" s="84">
+      <c r="B19" s="87">
         <v>5</v>
       </c>
-      <c r="C19" s="86" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="82" t="s">
-        <v>54</v>
+      <c r="C19" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="78"/>
+      <c r="E19" s="81" t="s">
+        <v>53</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>37</v>
@@ -2356,10 +2342,10 @@
       <c r="U19" s="4"/>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B20" s="84"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="83"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="82"/>
       <c r="F20" s="4" t="s">
         <v>36</v>
       </c>
@@ -2380,12 +2366,12 @@
       <c r="U20" s="4"/>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B21" s="84">
+      <c r="B21" s="87">
         <v>6</v>
       </c>
-      <c r="C21" s="78"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="82"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="81"/>
       <c r="F21" s="4" t="s">
         <v>37</v>
       </c>
@@ -2406,10 +2392,10 @@
       <c r="U21" s="4"/>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B22" s="84"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="83"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="82"/>
       <c r="F22" s="4" t="s">
         <v>36</v>
       </c>
@@ -2430,12 +2416,12 @@
       <c r="U22" s="4"/>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B23" s="84">
+      <c r="B23" s="87">
         <v>7</v>
       </c>
-      <c r="C23" s="78"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="82"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="81"/>
       <c r="F23" s="4" t="s">
         <v>37</v>
       </c>
@@ -2456,10 +2442,10 @@
       <c r="U23" s="4"/>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B24" s="84"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="83"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="82"/>
       <c r="F24" s="4" t="s">
         <v>36</v>
       </c>
@@ -2480,12 +2466,12 @@
       <c r="U24" s="4"/>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B25" s="84">
+      <c r="B25" s="87">
         <v>8</v>
       </c>
-      <c r="C25" s="78"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="82"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="81"/>
       <c r="F25" s="4" t="s">
         <v>37</v>
       </c>
@@ -2506,10 +2492,10 @@
       <c r="U25" s="4"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B26" s="84"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="83"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="82"/>
       <c r="F26" s="4" t="s">
         <v>36</v>
       </c>
@@ -2530,12 +2516,12 @@
       <c r="U26" s="4"/>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B27" s="84">
+      <c r="B27" s="87">
         <v>9</v>
       </c>
-      <c r="C27" s="78"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="82"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="81"/>
       <c r="F27" s="4" t="s">
         <v>37</v>
       </c>
@@ -2556,10 +2542,10 @@
       <c r="U27" s="4"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B28" s="84"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="83"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="82"/>
       <c r="F28" s="4" t="s">
         <v>36</v>
       </c>
@@ -2580,12 +2566,12 @@
       <c r="U28" s="4"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B29" s="84">
+      <c r="B29" s="87">
         <v>10</v>
       </c>
-      <c r="C29" s="78"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="82"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="81"/>
       <c r="F29" s="4" t="s">
         <v>37</v>
       </c>
@@ -2606,10 +2592,10 @@
       <c r="U29" s="4"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B30" s="84"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="83"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="82"/>
       <c r="F30" s="4" t="s">
         <v>36</v>
       </c>
@@ -2630,12 +2616,12 @@
       <c r="U30" s="4"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B31" s="84">
+      <c r="B31" s="87">
         <v>12</v>
       </c>
-      <c r="C31" s="78"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="82"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="81"/>
       <c r="F31" s="4" t="s">
         <v>37</v>
       </c>
@@ -2656,10 +2642,10 @@
       <c r="U31" s="19"/>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B32" s="84"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="81"/>
-      <c r="E32" s="83"/>
+      <c r="B32" s="87"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="82"/>
       <c r="F32" s="4" t="s">
         <v>36</v>
       </c>
@@ -2680,12 +2666,12 @@
       <c r="U32" s="4"/>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B33" s="84">
+      <c r="B33" s="87">
         <v>13</v>
       </c>
-      <c r="C33" s="78"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="82"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="81"/>
       <c r="F33" s="4" t="s">
         <v>37</v>
       </c>
@@ -2706,10 +2692,10 @@
       <c r="U33" s="4"/>
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B34" s="84"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="83"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="82"/>
       <c r="F34" s="4" t="s">
         <v>36</v>
       </c>
@@ -2786,11 +2772,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K110"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2808,40 +2794,40 @@
   <sheetData>
     <row r="2" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="57"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="56"/>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="58"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="60"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="59"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
     </row>
     <row r="5" spans="2:11" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="61"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="63"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="62"/>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
     </row>
@@ -2883,16 +2869,16 @@
         <v>43379</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>42</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H9" s="18" t="s">
         <v>44</v>
@@ -2907,13 +2893,13 @@
         <v>43386</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>41</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G10" s="22" t="s">
         <v>45</v>
@@ -2931,16 +2917,16 @@
         <v>43390</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>41</v>
       </c>
       <c r="F11" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="37" t="s">
-        <v>53</v>
+        <v>65</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>74</v>
       </c>
       <c r="H11" s="18" t="s">
         <v>47</v>
@@ -2961,10 +2947,10 @@
         <v>42</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H12" s="18" t="s">
         <v>48</v>
@@ -2985,13 +2971,13 @@
         <v>41</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G13" s="23" t="s">
         <v>49</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I13" s="14"/>
     </row>
@@ -3986,7 +3972,7 @@
     <mergeCell ref="B3:I5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Semanas del curso" error="Las actividades solo se pueden realizar dentro de las 15 semanas que dura el cuatrimestre." sqref="B9:B110" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Semanas del curso" error="Las actividades solo se pueden realizar dentro de las 15 semanas que dura el cuatrimestre." sqref="B9:B110">
       <formula1>1</formula1>
       <formula2>15</formula2>
     </dataValidation>
@@ -3998,13 +3984,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Hoja3!$F$4:$F$5</xm:f>
           </x14:formula1>
           <xm:sqref>E9:E110</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Hoja3!$D$4:$D$12</xm:f>
           </x14:formula1>
@@ -4017,7 +4003,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
